--- a/数据更新记录-更新到1904023.xlsx
+++ b/数据更新记录-更新到1904023.xlsx
@@ -1525,7 +1525,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>复活节两套及氪金套装</t>
+    <t>复活节两套、氪金套装及织梦人套装</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2053,7 +2053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4019,8 +4019,8 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
